--- a/Practical/Task1.xlsx
+++ b/Practical/Task1.xlsx
@@ -444,22 +444,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
